--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0988973-DC7D-BA40-BBCE-A9ADC8D8ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813911F1-198C-7642-92E6-D9C350065E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="19120" windowHeight="17820" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
+    <workbookView xWindow="9760" yWindow="740" windowWidth="19120" windowHeight="17820" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
   <sheets>
     <sheet name="picornavirales_contigs_summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="527">
   <si>
     <t>CZID</t>
   </si>
@@ -1651,7 +1651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,6 +1661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,12 +1683,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,8 +2027,8 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U51" sqref="U51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2029,7 +2036,7 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.83203125" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
@@ -2727,7 +2734,7 @@
       <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C14" t="s">
@@ -2792,7 +2799,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C15" t="s">
@@ -2854,7 +2861,7 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C16" t="s">
@@ -2984,7 +2991,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C18" t="s">
@@ -3046,7 +3053,7 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C19" t="s">
@@ -3108,7 +3115,7 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C20" t="s">
@@ -3170,7 +3177,7 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C21" t="s">
@@ -3235,7 +3242,7 @@
       <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C22" t="s">
@@ -3416,8 +3423,8 @@
       <c r="S24" t="s">
         <v>375</v>
       </c>
-      <c r="T24">
-        <v>331</v>
+      <c r="T24" t="s">
+        <v>265</v>
       </c>
       <c r="V24" t="s">
         <v>33</v>
@@ -3481,15 +3488,15 @@
       <c r="S25" t="s">
         <v>260</v>
       </c>
-      <c r="T25">
-        <v>286</v>
+      <c r="T25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C26" t="s">
@@ -3554,7 +3561,7 @@
       <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C27" t="s">
@@ -5303,7 +5310,7 @@
       <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>451</v>
       </c>
       <c r="C54" t="s">
@@ -5498,7 +5505,7 @@
       <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>445</v>
       </c>
       <c r="C57" t="s">
@@ -6136,7 +6143,7 @@
       <c r="A67" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>452</v>
       </c>
       <c r="C67" t="s">

--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813911F1-198C-7642-92E6-D9C350065E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F314181-6176-0B4D-8D0D-94F206093284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="740" windowWidth="19120" windowHeight="17820" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
+    <workbookView xWindow="29480" yWindow="-1480" windowWidth="19120" windowHeight="17820" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
   <sheets>
     <sheet name="picornavirales_contigs_summary" sheetId="1" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,6 +1670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1683,13 +1689,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,8 +2034,8 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T41" activeCellId="5" sqref="T14:T23 T26:T27 T35 T38 T40 T41:T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3369,61 +3376,61 @@
       <c r="A24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>6332</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>77</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <v>39.5</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="6">
         <v>80.28</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="6" t="s">
         <v>265</v>
       </c>
       <c r="V24" t="s">
@@ -3434,61 +3441,61 @@
       <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>3600</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="6">
         <v>62</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="6">
         <v>28.5</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3626,61 +3633,61 @@
       <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>3125</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>87</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="6">
         <v>57.24</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U28" t="s">
@@ -3694,61 +3701,61 @@
       <c r="A29" t="s">
         <v>102</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>5122</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>83</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="6">
         <v>64.709999999999994</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="6">
         <v>11</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="6">
         <v>78.849999999999994</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U29" t="s">
@@ -3762,61 +3769,61 @@
       <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>2370</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U30" t="s">
@@ -3827,61 +3834,61 @@
       <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>2880</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>34</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="6">
         <v>22.87</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U31" t="s">
@@ -3892,61 +3899,61 @@
       <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>1656</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="6">
         <v>99</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="6">
         <v>97.64</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="6">
         <v>100</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="6">
         <v>97.83</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U32" t="s">
@@ -3960,61 +3967,61 @@
       <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <v>5787</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="6">
         <v>93</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="6">
         <v>38.82</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U33" t="s">
@@ -4028,61 +4035,61 @@
       <c r="A34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <v>5982</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="6">
         <v>98</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="6">
         <v>93.03</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="6">
         <v>100</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="6">
         <v>90.63</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U34" t="s">
@@ -4161,61 +4168,61 @@
       <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>1807</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="6">
         <v>99</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="6">
         <v>98.34</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="6">
         <v>100</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="6">
         <v>93.86</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U36" t="s">
@@ -4226,61 +4233,61 @@
       <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <v>3655</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="6">
         <v>69</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="6">
         <v>43.95</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="6">
         <v>6</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="6">
         <v>74.900000000000006</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U37" t="s">
@@ -4359,61 +4366,61 @@
       <c r="A39" t="s">
         <v>108</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>3380</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="6">
         <v>97</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="6">
         <v>48.06</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" s="6" t="s">
         <v>265</v>
       </c>
       <c r="U39" t="s">

--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F314181-6176-0B4D-8D0D-94F206093284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD646023-D1E0-ED40-AEA9-0B5A80F02EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29480" yWindow="-1480" windowWidth="19120" windowHeight="17820" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28100" windowHeight="18380" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
   <sheets>
     <sheet name="picornavirales_contigs_summary" sheetId="1" r:id="rId1"/>
@@ -2034,8 +2034,8 @@
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T41" activeCellId="5" sqref="T14:T23 T26:T27 T35 T38 T40 T41:T75"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" activeCellId="4" sqref="L14:S23 L26:S27 L35:S35 L38:S38 L40:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,12 +2043,12 @@
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="31.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="15" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">

--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD646023-D1E0-ED40-AEA9-0B5A80F02EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1995C-2067-0A4F-B80E-0370525CBBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28100" windowHeight="18380" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
+    <workbookView xWindow="41740" yWindow="-1260" windowWidth="25780" windowHeight="19360" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
   <sheets>
     <sheet name="picornavirales_contigs_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="544">
   <si>
     <t>CZID</t>
   </si>
@@ -1617,6 +1617,57 @@
   </si>
   <si>
     <t>not analyzed for paper</t>
+  </si>
+  <si>
+    <t>RR034B_239_fecRa_S61_sapo_contig</t>
+  </si>
+  <si>
+    <t>RR034B_242_fecRa_S67_batpicorna_contig</t>
+  </si>
+  <si>
+    <t>RR034B_281_fecRa_S29_tescho_manual_assembly</t>
+  </si>
+  <si>
+    <t>Rousettus madagascariensis sapovirus 4</t>
+  </si>
+  <si>
+    <t>Rousettus madagascariensis picornavirus 4</t>
+  </si>
+  <si>
+    <t>MAG: Rousettus bat calicivirus isolate 13A/Kenya/BAT2797/2015 genomic sequence</t>
+  </si>
+  <si>
+    <t>PP712008.1</t>
+  </si>
+  <si>
+    <t>MAG: Rousettus bat picornavirus isolate 25A/Uganda/UR47/2018 genomic sequence</t>
+  </si>
+  <si>
+    <t>PP711909.1</t>
+  </si>
+  <si>
+    <t>PP711934.1</t>
+  </si>
+  <si>
+    <t>MAG: Rousettus bat picornavirus isolate 29A/Kenya/BAT3/2015 genomic sequence</t>
+  </si>
+  <si>
+    <t>MAG: polyprotein, partial [Rousettus bat calicivirus]</t>
+  </si>
+  <si>
+    <t>XBH24168.1</t>
+  </si>
+  <si>
+    <t>XBH24017.1</t>
+  </si>
+  <si>
+    <t>MAG: polyprotein [Rousettus bat picornavirus]</t>
+  </si>
+  <si>
+    <t>MAG: polyprotein, partial [Rousettus bat picornavirus]</t>
+  </si>
+  <si>
+    <t>XBH24006.1</t>
   </si>
 </sst>
 </file>
@@ -2031,11 +2082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B1E09-83AA-F34E-8AF2-C753A6FF71A6}">
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L40" activeCellId="4" sqref="L14:S23 L26:S27 L35:S35 L38:S38 L40:S75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6775,6 +6826,129 @@
         <v>33</v>
       </c>
     </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>527</v>
+      </c>
+      <c r="C77" t="s">
+        <v>530</v>
+      </c>
+      <c r="I77" t="s">
+        <v>164</v>
+      </c>
+      <c r="J77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K77" t="s">
+        <v>179</v>
+      </c>
+      <c r="L77" t="s">
+        <v>538</v>
+      </c>
+      <c r="M77">
+        <v>93</v>
+      </c>
+      <c r="N77">
+        <v>66.89</v>
+      </c>
+      <c r="O77" t="s">
+        <v>539</v>
+      </c>
+      <c r="P77" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>79.05</v>
+      </c>
+      <c r="S77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>528</v>
+      </c>
+      <c r="C78" t="s">
+        <v>531</v>
+      </c>
+      <c r="I78" t="s">
+        <v>167</v>
+      </c>
+      <c r="J78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L78" t="s">
+        <v>541</v>
+      </c>
+      <c r="M78">
+        <v>91</v>
+      </c>
+      <c r="N78">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="O78" t="s">
+        <v>540</v>
+      </c>
+      <c r="P78" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q78">
+        <v>90</v>
+      </c>
+      <c r="R78">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="S78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>529</v>
+      </c>
+      <c r="C79" t="s">
+        <v>412</v>
+      </c>
+      <c r="I79" t="s">
+        <v>170</v>
+      </c>
+      <c r="J79" t="s">
+        <v>157</v>
+      </c>
+      <c r="K79" t="s">
+        <v>179</v>
+      </c>
+      <c r="L79" t="s">
+        <v>542</v>
+      </c>
+      <c r="M79">
+        <v>91</v>
+      </c>
+      <c r="N79">
+        <v>92.16</v>
+      </c>
+      <c r="O79" t="s">
+        <v>543</v>
+      </c>
+      <c r="P79" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q79">
+        <v>98</v>
+      </c>
+      <c r="R79">
+        <v>79.41</v>
+      </c>
+      <c r="S79" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V76">
     <sortCondition ref="B1:B76"/>

--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCF535-53AA-4549-995E-C838A8F1B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D38D7-2E54-5F40-A0E3-658D40710792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34200" yWindow="-1980" windowWidth="33300" windowHeight="20080" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="387">
   <si>
     <t>CZID</t>
   </si>
@@ -128,15 +128,9 @@
     <t>RR034B_412_NODE_9_length_1924_cov_2.382558</t>
   </si>
   <si>
-    <t>RR034B_422_NODE_1_length_8379_cov_165.716242</t>
-  </si>
-  <si>
     <t>reverse complement pulled from CZID</t>
   </si>
   <si>
-    <t>ANG141_NODE_69_length_1287_cov_1.785124</t>
-  </si>
-  <si>
     <t>ANGB110_Plate114_B9_NODE_320_length_1028_cov_2.941115</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>ANGB22</t>
   </si>
   <si>
-    <t>ANGB141</t>
-  </si>
-  <si>
     <t>ANGB110</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>KEL298</t>
   </si>
   <si>
-    <t>KEL318</t>
-  </si>
-  <si>
     <t>KEL367</t>
   </si>
   <si>
@@ -491,9 +479,6 @@
     <t>OQ818344</t>
   </si>
   <si>
-    <t>OQ818322</t>
-  </si>
-  <si>
     <t>OQ818348</t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t>OQ818321 PRJNA954539 SAMN34150281 SRR24138228</t>
   </si>
   <si>
-    <t>OQ818322 PRJNA837298 SAMN28494084 SRX15403569</t>
-  </si>
-  <si>
     <t>OQ818323 PRJNA954539 SAMN34150332 SRR24138218</t>
   </si>
   <si>
@@ -860,9 +842,6 @@
     <t>Eidolon dupreanum sapelovirus 2</t>
   </si>
   <si>
-    <t>Eidolon dupreanum kobuvirus 2</t>
-  </si>
-  <si>
     <t>Rousettus madagascariensis teschovirus 1</t>
   </si>
   <si>
@@ -911,9 +890,6 @@
     <t>Part of sequence is vector derived, trimmed that region off</t>
   </si>
   <si>
-    <t>PP766450</t>
-  </si>
-  <si>
     <t>PP766449</t>
   </si>
   <si>
@@ -1004,9 +980,6 @@
     <t>isolate</t>
   </si>
   <si>
-    <t>ANG141</t>
-  </si>
-  <si>
     <t>ANG22</t>
   </si>
   <si>
@@ -1071,9 +1044,6 @@
   </si>
   <si>
     <t>accession_Bioproject_Biosample_SRA</t>
-  </si>
-  <si>
-    <t>PP766450 PRJNA1107604 SAMN41191141 SRR28887712</t>
   </si>
   <si>
     <t>PP766449 PRJNA1107604 SAMN41191140 SRR28887713</t>
@@ -1281,11 +1251,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,17 +1589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B1E09-83AA-F34E-8AF2-C753A6FF71A6}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="31.83203125" customWidth="1"/>
@@ -1644,17 +1613,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1663,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -1675,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -1684,919 +1653,919 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2">
+        <v>3605</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2">
-        <v>7982</v>
-      </c>
-      <c r="G2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2">
         <v>91</v>
       </c>
-      <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2">
-        <v>81</v>
-      </c>
       <c r="N2">
-        <v>46.51</v>
+        <v>95.42</v>
       </c>
       <c r="O2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="R2">
-        <v>69.709999999999994</v>
+        <v>83.04</v>
       </c>
       <c r="S2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>346</v>
       </c>
       <c r="F3">
-        <v>7329</v>
+        <v>7285</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3">
-        <v>91.61</v>
+        <v>94.3</v>
       </c>
       <c r="O3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q3">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="R3">
-        <v>81.93</v>
+        <v>99.54</v>
       </c>
       <c r="S3" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="T3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>357</v>
       </c>
       <c r="F4">
-        <v>7085</v>
+        <v>7337</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4">
-        <v>71.05</v>
+        <v>94.26</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="R4">
-        <v>79.63</v>
+        <v>82.16</v>
       </c>
       <c r="S4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
+        <v>243</v>
+      </c>
+      <c r="T4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F5">
-        <v>6378</v>
+        <v>5785</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="M5">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>67.180000000000007</v>
+        <v>94.75</v>
       </c>
       <c r="O5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="R5">
-        <v>79.819999999999993</v>
+        <v>82.4</v>
       </c>
       <c r="S5" t="s">
-        <v>227</v>
+        <v>243</v>
+      </c>
+      <c r="T5" t="s">
+        <v>121</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>358</v>
       </c>
       <c r="F6">
-        <v>7685</v>
+        <v>1559</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N6">
-        <v>98.95</v>
+        <v>92.68</v>
       </c>
       <c r="O6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>99</v>
       </c>
       <c r="R6">
-        <v>94.37</v>
+        <v>81.53</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>243</v>
+      </c>
+      <c r="T6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="F7">
-        <v>7751</v>
+        <v>1286</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>99.33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" t="s">
         <v>180</v>
       </c>
-      <c r="M7">
-        <v>95</v>
-      </c>
-      <c r="N7">
-        <v>75.8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R7">
-        <v>73.31</v>
+        <v>98.99</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="F8">
-        <v>8379</v>
+        <v>2837</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>99.47</v>
       </c>
       <c r="O8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R8">
-        <v>99.42</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>211</v>
+        <v>98.48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="F9">
-        <v>7294</v>
+        <v>1028</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="N9">
-        <v>61.92</v>
+        <v>97.54</v>
       </c>
       <c r="O9" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q9">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="R9">
-        <v>73.86</v>
+        <v>99.12</v>
       </c>
       <c r="S9" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="F10">
-        <v>7228</v>
+        <v>1742</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N10">
-        <v>60.97</v>
+        <v>99.31</v>
       </c>
       <c r="O10" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="Q10">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R10">
-        <v>73.81</v>
+        <v>97.88</v>
       </c>
       <c r="S10" t="s">
-        <v>260</v>
-      </c>
-      <c r="U10" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="F11">
-        <v>7280</v>
+        <v>1872</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" t="s">
-        <v>123</v>
-      </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N11">
-        <v>54.12</v>
+        <v>99.81</v>
       </c>
       <c r="O11" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="R11">
-        <v>78.86</v>
+        <v>98.45</v>
       </c>
       <c r="S11" t="s">
-        <v>261</v>
+        <v>205</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="F12">
-        <v>7614</v>
+        <v>8228</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
         <v>93</v>
       </c>
-      <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" t="s">
-        <v>183</v>
-      </c>
       <c r="M12">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N12">
-        <v>54.85</v>
+        <v>99.71</v>
       </c>
       <c r="O12" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="R12">
-        <v>78.86</v>
+        <v>98.4</v>
       </c>
       <c r="S12" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F13">
-        <v>7714</v>
+        <v>7329</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
         <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N13">
-        <v>83.15</v>
+        <v>91.61</v>
       </c>
       <c r="O13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q13">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R13">
-        <v>74.87</v>
+        <v>81.93</v>
       </c>
       <c r="S13" t="s">
-        <v>262</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="F14">
-        <v>5785</v>
+        <v>1111</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N14">
-        <v>94.75</v>
+        <v>99.19</v>
       </c>
       <c r="O14" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>82.4</v>
+        <v>94.24</v>
       </c>
       <c r="S14" t="s">
-        <v>249</v>
-      </c>
-      <c r="T14" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F15">
-        <v>3232</v>
+        <v>7685</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M15">
+        <v>96</v>
+      </c>
+      <c r="N15">
+        <v>98.95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15">
         <v>99</v>
       </c>
-      <c r="N15">
-        <v>67.97</v>
-      </c>
-      <c r="O15" t="s">
-        <v>245</v>
-      </c>
-      <c r="P15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q15">
-        <v>63</v>
-      </c>
       <c r="R15">
-        <v>71.400000000000006</v>
+        <v>94.37</v>
       </c>
       <c r="S15" t="s">
-        <v>229</v>
-      </c>
-      <c r="U15" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>140</v>
+      <c r="B16" t="s">
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>1177</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M16">
         <v>99</v>
@@ -2605,51 +2574,51 @@
         <v>98.47</v>
       </c>
       <c r="O16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
+      <c r="B17" t="s">
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F17">
         <v>1127</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M17">
         <v>99</v>
@@ -2658,10 +2627,10 @@
         <v>98.67</v>
       </c>
       <c r="O17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -2670,45 +2639,45 @@
         <v>92.28</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>150</v>
+      <c r="B18" t="s">
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F18">
         <v>2134</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M18">
         <v>99</v>
@@ -2717,10 +2686,10 @@
         <v>99.15</v>
       </c>
       <c r="O18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>99</v>
@@ -2729,2190 +2698,2069 @@
         <v>94.57</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>363</v>
       </c>
       <c r="F19">
-        <v>1043</v>
+        <v>1924</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="N19">
-        <v>64.23</v>
+        <v>98.91</v>
       </c>
       <c r="O19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>174</v>
-      </c>
-      <c r="R19" t="s">
-        <v>174</v>
-      </c>
-      <c r="S19" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>92.83</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="F20">
-        <v>1028</v>
+        <v>1717</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" t="s">
         <v>119</v>
       </c>
-      <c r="J20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" t="s">
-        <v>123</v>
-      </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M20">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N20">
-        <v>57.23</v>
+        <v>73.180000000000007</v>
       </c>
       <c r="O20" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20">
-        <v>15</v>
-      </c>
-      <c r="R20">
-        <v>81.94</v>
+        <v>168</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>168</v>
+      </c>
+      <c r="R20" t="s">
+        <v>168</v>
       </c>
       <c r="S20" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="F21">
-        <v>2171</v>
+        <v>1244</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="M21">
         <v>99</v>
       </c>
       <c r="N21">
-        <v>75.8</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="O21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R21">
-        <v>72.44</v>
+        <v>75.44</v>
       </c>
       <c r="S21" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F22">
-        <v>2611</v>
+        <v>7751</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="M22">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N22">
-        <v>81.38</v>
+        <v>75.8</v>
       </c>
       <c r="O22" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R22">
-        <v>74.92</v>
+        <v>73.31</v>
       </c>
       <c r="S22" t="s">
-        <v>237</v>
-      </c>
-      <c r="U22" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>292</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F23">
-        <v>1286</v>
+        <v>1165</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="N23">
-        <v>99.33</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="O23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="R23">
-        <v>98.99</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>291</v>
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F24">
-        <v>1287</v>
+        <v>7432</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N24">
-        <v>99.72</v>
+        <v>99.9</v>
       </c>
       <c r="O24" t="s">
         <v>239</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q24">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>97.91</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="S24" t="s">
-        <v>211</v>
-      </c>
-      <c r="U24" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>293</v>
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="F25">
-        <v>2837</v>
+        <v>6378</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="M25">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N25">
-        <v>99.47</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="O25" t="s">
         <v>239</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>98.48</v>
+        <v>79.819999999999993</v>
       </c>
       <c r="S25" t="s">
-        <v>211</v>
+        <v>221</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="F26">
-        <v>1742</v>
+        <v>3232</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="M26">
         <v>99</v>
       </c>
       <c r="N26">
-        <v>99.31</v>
+        <v>67.97</v>
       </c>
       <c r="O26" t="s">
         <v>239</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="R26">
-        <v>97.88</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="S26" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>295</v>
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F27">
-        <v>1028</v>
+        <v>1694</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N27">
-        <v>97.54</v>
+        <v>90.13</v>
       </c>
       <c r="O27" t="s">
         <v>239</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R27">
-        <v>99.12</v>
+        <v>80.7</v>
       </c>
       <c r="S27" t="s">
-        <v>213</v>
-      </c>
-      <c r="U27" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>296</v>
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>308</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F28">
-        <v>1872</v>
+        <v>2012</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N28">
-        <v>99.81</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="O28" t="s">
         <v>239</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28">
-        <v>100</v>
-      </c>
-      <c r="R28">
-        <v>98.45</v>
+        <v>168</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>168</v>
+      </c>
+      <c r="R28" t="s">
+        <v>168</v>
       </c>
       <c r="S28" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="U28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="F29">
-        <v>7285</v>
+        <v>7085</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="M29">
         <v>91</v>
       </c>
       <c r="N29">
-        <v>94.3</v>
+        <v>71.05</v>
       </c>
       <c r="O29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>99.54</v>
+        <v>79.63</v>
       </c>
       <c r="S29" t="s">
-        <v>249</v>
-      </c>
-      <c r="T29" t="s">
-        <v>290</v>
+        <v>253</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>303</v>
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="F30">
-        <v>8228</v>
+        <v>7982</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N30">
-        <v>99.71</v>
+        <v>46.51</v>
       </c>
       <c r="O30" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="R30">
-        <v>98.4</v>
+        <v>69.709999999999994</v>
       </c>
       <c r="S30" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="U30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>313</v>
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>367</v>
+        <v>156</v>
       </c>
       <c r="F31">
-        <v>7337</v>
+        <v>7280</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s">
         <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L31" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N31">
-        <v>94.26</v>
+        <v>54.12</v>
       </c>
       <c r="O31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="R31">
-        <v>82.16</v>
+        <v>78.86</v>
       </c>
       <c r="S31" t="s">
-        <v>249</v>
-      </c>
-      <c r="T31" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>314</v>
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
       <c r="F32">
-        <v>1559</v>
+        <v>7614</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
         <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="M32">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N32">
-        <v>92.68</v>
+        <v>54.85</v>
       </c>
       <c r="O32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="Q32">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>81.53</v>
+        <v>78.86</v>
       </c>
       <c r="S32" t="s">
-        <v>249</v>
-      </c>
-      <c r="T32" t="s">
-        <v>126</v>
+        <v>255</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>297</v>
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>271</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="F33">
-        <v>7432</v>
+        <v>1028</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="M33">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="N33">
-        <v>99.9</v>
+        <v>57.23</v>
       </c>
       <c r="O33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R33">
-        <v>79.819999999999993</v>
+        <v>81.94</v>
       </c>
       <c r="S33" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>316</v>
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="E34" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="F34">
-        <v>2012</v>
+        <v>7513</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34">
         <v>93</v>
       </c>
-      <c r="I34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" t="s">
-        <v>204</v>
-      </c>
-      <c r="M34">
-        <v>70</v>
-      </c>
       <c r="N34">
-        <v>75.260000000000005</v>
+        <v>54.06</v>
       </c>
       <c r="O34" t="s">
+        <v>250</v>
+      </c>
+      <c r="P34" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>85.09</v>
+      </c>
+      <c r="S34" t="s">
         <v>245</v>
       </c>
-      <c r="P34" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>174</v>
-      </c>
-      <c r="R34" t="s">
-        <v>174</v>
-      </c>
-      <c r="S34" t="s">
-        <v>174</v>
-      </c>
       <c r="U34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>315</v>
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="F35">
-        <v>1694</v>
+        <v>1160</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="M35">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N35">
-        <v>90.13</v>
+        <v>57.21</v>
       </c>
       <c r="O35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q35">
-        <v>92</v>
-      </c>
-      <c r="R35">
-        <v>80.7</v>
+        <v>168</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" t="s">
+        <v>168</v>
       </c>
       <c r="S35" t="s">
-        <v>226</v>
+        <v>168</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
         <v>298</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F36">
-        <v>1717</v>
+        <v>2410</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N36">
-        <v>73.180000000000007</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="O36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>174</v>
-      </c>
-      <c r="R36" t="s">
-        <v>174</v>
+        <v>213</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>86.51</v>
       </c>
       <c r="S36" t="s">
-        <v>174</v>
-      </c>
-      <c r="U36" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>299</v>
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37" t="s">
-        <v>328</v>
+        <v>274</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F37">
-        <v>1244</v>
+        <v>2384</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M37">
         <v>99</v>
       </c>
       <c r="N37">
-        <v>76.680000000000007</v>
+        <v>50.25</v>
       </c>
       <c r="O37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q37">
-        <v>18</v>
-      </c>
-      <c r="R37">
-        <v>75.44</v>
+        <v>168</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>168</v>
+      </c>
+      <c r="R37" t="s">
+        <v>168</v>
       </c>
       <c r="S37" t="s">
-        <v>215</v>
-      </c>
-      <c r="U37" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="E38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F38">
+        <v>7667</v>
+      </c>
+      <c r="G38" t="s">
+        <v>382</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>378</v>
+      </c>
+      <c r="M38">
+        <v>91</v>
+      </c>
+      <c r="N38">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="O38" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q38">
+        <v>90</v>
+      </c>
+      <c r="R38">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="S38" t="s">
         <v>372</v>
-      </c>
-      <c r="F38">
-        <v>1165</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" t="s">
-        <v>180</v>
-      </c>
-      <c r="M38">
-        <v>99</v>
-      </c>
-      <c r="N38">
-        <v>78.459999999999994</v>
-      </c>
-      <c r="O38" t="s">
-        <v>240</v>
-      </c>
-      <c r="P38" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
-      <c r="R38">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>300</v>
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="F39">
-        <v>1111</v>
+        <v>7714</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39">
+        <v>93</v>
+      </c>
+      <c r="N39">
+        <v>83.15</v>
+      </c>
+      <c r="O39" t="s">
+        <v>259</v>
+      </c>
+      <c r="P39" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q39">
         <v>91</v>
       </c>
-      <c r="I39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" t="s">
-        <v>112</v>
-      </c>
-      <c r="K39" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" t="s">
-        <v>199</v>
-      </c>
-      <c r="M39">
-        <v>99</v>
-      </c>
-      <c r="N39">
-        <v>99.19</v>
-      </c>
-      <c r="O39" t="s">
-        <v>240</v>
-      </c>
-      <c r="P39" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q39">
-        <v>100</v>
-      </c>
       <c r="R39">
-        <v>94.24</v>
+        <v>74.87</v>
       </c>
       <c r="S39" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="U39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>319</v>
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>164</v>
       </c>
       <c r="F40">
-        <v>1924</v>
+        <v>1043</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L40" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M40">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N40">
-        <v>98.91</v>
+        <v>64.23</v>
       </c>
       <c r="O40" t="s">
         <v>240</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q40">
-        <v>100</v>
-      </c>
-      <c r="R40">
-        <v>92.83</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>168</v>
+      </c>
+      <c r="R40" t="s">
+        <v>168</v>
+      </c>
+      <c r="S40" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="E41" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F41">
-        <v>3605</v>
+        <v>1146</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L41" t="s">
         <v>104</v>
       </c>
       <c r="M41">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N41">
-        <v>95.42</v>
+        <v>70.94</v>
       </c>
       <c r="O41" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="Q41">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="R41">
-        <v>83.04</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="S41" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="U41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>317</v>
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E42" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="F42">
-        <v>1200</v>
+        <v>2961</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N42">
-        <v>78.75</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="O42" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>174</v>
-      </c>
-      <c r="R42" t="s">
-        <v>174</v>
+        <v>211</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>86.67</v>
       </c>
       <c r="S42" t="s">
-        <v>174</v>
-      </c>
-      <c r="U42" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C43" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" t="s">
-        <v>330</v>
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F43">
-        <v>7513</v>
+        <v>1014</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
         <v>119</v>
       </c>
-      <c r="J43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" t="s">
-        <v>124</v>
-      </c>
       <c r="L43" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="M43">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="N43">
-        <v>54.06</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="O43" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="R43">
-        <v>85.09</v>
+        <v>168</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R43" t="s">
+        <v>168</v>
       </c>
       <c r="S43" t="s">
-        <v>251</v>
-      </c>
-      <c r="U43" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>305</v>
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" t="s">
-        <v>333</v>
+        <v>275</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="E44" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F44">
-        <v>2961</v>
+        <v>1884</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M44">
         <v>99</v>
       </c>
       <c r="N44">
-        <v>79.010000000000005</v>
+        <v>80.86</v>
       </c>
       <c r="O44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
       <c r="R44">
-        <v>86.67</v>
+        <v>100</v>
       </c>
       <c r="S44" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>306</v>
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
-      </c>
-      <c r="D45" t="s">
-        <v>335</v>
+        <v>275</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F45">
-        <v>2410</v>
+        <v>1266</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
         <v>119</v>
       </c>
-      <c r="J45" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" t="s">
-        <v>123</v>
-      </c>
       <c r="L45" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="M45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N45">
-        <v>65.989999999999995</v>
+        <v>77.25</v>
       </c>
       <c r="O45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>86.51</v>
+        <v>94.44</v>
       </c>
       <c r="S45" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="U45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>312</v>
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>336</v>
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="F46">
-        <v>2384</v>
+        <v>2171</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
         <v>119</v>
       </c>
-      <c r="J46" t="s">
-        <v>112</v>
-      </c>
-      <c r="K46" t="s">
-        <v>123</v>
-      </c>
       <c r="L46" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M46">
         <v>99</v>
       </c>
       <c r="N46">
-        <v>50.25</v>
+        <v>75.8</v>
       </c>
       <c r="O46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>174</v>
-      </c>
-      <c r="R46" t="s">
-        <v>174</v>
+        <v>226</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>72.44</v>
       </c>
       <c r="S46" t="s">
-        <v>174</v>
+        <v>227</v>
+      </c>
+      <c r="U46" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>307</v>
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>337</v>
+        <v>277</v>
+      </c>
+      <c r="D47" t="s">
+        <v>332</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F47">
-        <v>1884</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>80.86</v>
+        <v>78.75</v>
       </c>
       <c r="O47" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47">
-        <v>100</v>
+        <v>168</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>168</v>
+      </c>
+      <c r="R47" t="s">
+        <v>168</v>
       </c>
       <c r="S47" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="U47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>308</v>
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>338</v>
+        <v>277</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>366</v>
+        <v>167</v>
       </c>
       <c r="F48">
-        <v>1266</v>
+        <v>2611</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L48" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="M48">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N48">
-        <v>77.25</v>
+        <v>81.38</v>
       </c>
       <c r="O48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="R48">
-        <v>94.44</v>
+        <v>74.92</v>
       </c>
       <c r="S48" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="U48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="E49" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>1160</v>
+        <v>7214</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
         <v>119</v>
       </c>
-      <c r="J49" t="s">
-        <v>112</v>
-      </c>
-      <c r="K49" t="s">
-        <v>123</v>
-      </c>
       <c r="L49" t="s">
-        <v>201</v>
+        <v>375</v>
       </c>
       <c r="M49">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N49">
-        <v>57.21</v>
+        <v>66.89</v>
       </c>
       <c r="O49" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>174</v>
-      </c>
-      <c r="R49" t="s">
-        <v>174</v>
+        <v>369</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>79.05</v>
       </c>
       <c r="S49" t="s">
-        <v>174</v>
-      </c>
-      <c r="U49" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>332</v>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="F50">
-        <v>1146</v>
+        <v>7294</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="M50">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N50">
-        <v>70.94</v>
+        <v>61.92</v>
       </c>
       <c r="O50" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="R50">
-        <v>73.709999999999994</v>
+        <v>73.86</v>
       </c>
       <c r="S50" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="U50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>334</v>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="F51">
-        <v>1014</v>
+        <v>7228</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L51" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="N51">
-        <v>80.510000000000005</v>
+        <v>60.97</v>
       </c>
       <c r="O51" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>174</v>
-      </c>
-      <c r="R51" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="Q51">
+        <v>89</v>
+      </c>
+      <c r="R51">
+        <v>73.81</v>
       </c>
       <c r="S51" t="s">
-        <v>174</v>
+        <v>254</v>
+      </c>
+      <c r="U51" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>383</v>
+      </c>
+      <c r="E52" t="s">
+        <v>386</v>
+      </c>
+      <c r="F52">
+        <v>6984</v>
+      </c>
+      <c r="G52" t="s">
+        <v>383</v>
+      </c>
+      <c r="H52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" t="s">
+        <v>119</v>
+      </c>
+      <c r="L52" t="s">
+        <v>379</v>
+      </c>
+      <c r="M52">
+        <v>91</v>
+      </c>
+      <c r="N52">
+        <v>92.16</v>
+      </c>
+      <c r="O52" t="s">
+        <v>380</v>
+      </c>
+      <c r="P52" t="s">
         <v>374</v>
       </c>
-      <c r="C52" t="s">
-        <v>377</v>
-      </c>
-      <c r="D52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E52" t="s">
-        <v>394</v>
-      </c>
-      <c r="F52">
-        <v>7214</v>
-      </c>
-      <c r="G52" t="s">
-        <v>391</v>
-      </c>
-      <c r="H52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I52" t="s">
-        <v>116</v>
-      </c>
-      <c r="J52" t="s">
-        <v>113</v>
-      </c>
-      <c r="K52" t="s">
-        <v>123</v>
-      </c>
-      <c r="L52" t="s">
-        <v>385</v>
-      </c>
-      <c r="M52">
-        <v>93</v>
-      </c>
-      <c r="N52">
-        <v>66.89</v>
-      </c>
-      <c r="O52" t="s">
-        <v>386</v>
-      </c>
-      <c r="P52" t="s">
-        <v>379</v>
-      </c>
       <c r="Q52">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="R52">
-        <v>79.05</v>
+        <v>79.41</v>
       </c>
       <c r="S52" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>375</v>
-      </c>
-      <c r="C53" t="s">
-        <v>378</v>
-      </c>
-      <c r="D53" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" t="s">
-        <v>395</v>
-      </c>
-      <c r="F53">
-        <v>7667</v>
-      </c>
-      <c r="G53" t="s">
-        <v>392</v>
-      </c>
-      <c r="H53" t="s">
-        <v>93</v>
-      </c>
-      <c r="I53" t="s">
-        <v>119</v>
-      </c>
-      <c r="J53" t="s">
-        <v>112</v>
-      </c>
-      <c r="K53" t="s">
-        <v>124</v>
-      </c>
-      <c r="L53" t="s">
-        <v>388</v>
-      </c>
-      <c r="M53">
-        <v>91</v>
-      </c>
-      <c r="N53">
-        <v>79.150000000000006</v>
-      </c>
-      <c r="O53" t="s">
-        <v>387</v>
-      </c>
-      <c r="P53" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q53">
-        <v>90</v>
-      </c>
-      <c r="R53">
-        <v>73.569999999999993</v>
-      </c>
-      <c r="S53" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>376</v>
-      </c>
-      <c r="C54" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" t="s">
-        <v>396</v>
-      </c>
-      <c r="F54">
-        <v>6984</v>
-      </c>
-      <c r="G54" t="s">
-        <v>393</v>
-      </c>
-      <c r="H54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I54" t="s">
-        <v>122</v>
-      </c>
-      <c r="J54" t="s">
-        <v>112</v>
-      </c>
-      <c r="K54" t="s">
-        <v>123</v>
-      </c>
-      <c r="L54" t="s">
-        <v>389</v>
-      </c>
-      <c r="M54">
-        <v>91</v>
-      </c>
-      <c r="N54">
-        <v>92.16</v>
-      </c>
-      <c r="O54" t="s">
-        <v>390</v>
-      </c>
-      <c r="P54" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q54">
-        <v>98</v>
-      </c>
-      <c r="R54">
-        <v>79.41</v>
-      </c>
-      <c r="S54" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U51">
-    <sortCondition ref="B1:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U54">
+    <sortCondition ref="C1:C54"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata/contigs_summary.xlsx
+++ b/metadata/contigs_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D38D7-2E54-5F40-A0E3-658D40710792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C03AC0-D599-2D4F-A9E3-2A0941F6E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="-1980" windowWidth="33300" windowHeight="20080" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
+    <workbookView xWindow="44960" yWindow="-1940" windowWidth="14720" windowHeight="19180" xr2:uid="{ACF55A4D-C62F-C34C-8C34-046BC6A9795B}"/>
   </bookViews>
   <sheets>
     <sheet name="picornavirales_contigs_summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="390">
   <si>
     <t>CZID</t>
   </si>
@@ -1197,6 +1197,15 @@
   </si>
   <si>
     <t>PRJNA954539 SAMN34150368 SRR24138203</t>
+  </si>
+  <si>
+    <t>PV788826</t>
+  </si>
+  <si>
+    <t>PV788824</t>
+  </si>
+  <si>
+    <t>PV788825</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3859,6 +3868,9 @@
       <c r="A38" t="s">
         <v>365</v>
       </c>
+      <c r="B38" t="s">
+        <v>389</v>
+      </c>
       <c r="C38" t="s">
         <v>368</v>
       </c>
@@ -4526,6 +4538,9 @@
       <c r="A49" t="s">
         <v>364</v>
       </c>
+      <c r="B49" t="s">
+        <v>388</v>
+      </c>
       <c r="C49" t="s">
         <v>367</v>
       </c>
@@ -4705,6 +4720,9 @@
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>366</v>
+      </c>
+      <c r="B52" t="s">
+        <v>387</v>
       </c>
       <c r="C52" t="s">
         <v>269</v>
